--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,10 +129,10 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CarePlanAtenderLE#CarePlan</t>
-  </si>
-  <si>
-    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestLE#ServiceRequest</t>
+    <t>element:CarePlan</t>
+  </si>
+  <si>
+    <t>element:ServiceRequest</t>
   </si>
   <si>
     <t>ID</t>

--- a/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
+++ b/refs/heads/master/StructureDefinition-ExtensionSolicitudExamenes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
